--- a/RPL_V2/xlsx/logo_fnl2.xlsx
+++ b/RPL_V2/xlsx/logo_fnl2.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SvyTo\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -310,8 +315,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,17 +375,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -418,9 +431,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,9 +465,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,9 +500,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -661,14 +676,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,7 +741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -771,7 +791,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -821,7 +841,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -871,7 +891,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -921,7 +941,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -971,7 +991,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1021,7 +1041,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1071,7 +1091,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1121,7 +1141,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1171,7 +1191,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1221,7 +1241,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1271,7 +1291,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1321,7 +1341,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1371,7 +1391,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1421,7 +1441,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1471,7 +1491,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1521,7 +1541,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1571,7 +1591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1621,7 +1641,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1671,7 +1691,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1721,7 +1741,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1771,7 +1791,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
